--- a/biology/Microbiologie/Percolozoa/Percolozoa.xlsx
+++ b/biology/Microbiologie/Percolozoa/Percolozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les percolozoaires ou (Heterolobosea) sont des organismes vivants unicellulaires pourvus d'un noyau. Ce sont donc des Eucaryotes. À l'inverse des autres Eucaryotes, ils ne possèdent pas d'appareil de Golgi.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques propres au taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les percolozoaires présentent la particularité de pouvoir alterner forme amiboïde dans les milieux solides et forme flagellée dans les milieux liquides. De plus dans certaines conditions, l'amibe peut s'enkyster.
 Selon l'espèce c'est l'une ou l'autre des deux formes qui prédomine.
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup d'espèces vivent dans les milieux riches en matière organique. Certaines sont parasites.
 Les pseudociliés mènent une vie benthique, dans les interstices des sédiments marins.
@@ -575,7 +591,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Macropharyngomonadidea
 Macropharyngomonadida
@@ -616,7 +634,9 @@
           <t>Liste d'espèces de percolozoaires parmi les 20 connues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Naegleria fowleri
 Naegleria gruberi
